--- a/Data Files/Leave A Message in Unscheduled Visit.xlsx
+++ b/Data Files/Leave A Message in Unscheduled Visit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -41,19 +41,19 @@
     <t>comment</t>
   </si>
   <si>
-    <t>Shila</t>
-  </si>
-  <si>
-    <t>Zahra</t>
-  </si>
-  <si>
-    <t>millicentkimwaki@gmail.com</t>
-  </si>
-  <si>
-    <t>Shila Zahra</t>
-  </si>
-  <si>
     <t>I was at your office we had the date set for today</t>
+  </si>
+  <si>
+    <t>Stella Ireri</t>
+  </si>
+  <si>
+    <t>stella.ireri@tezzasolutions.com</t>
+  </si>
+  <si>
+    <t>Stella</t>
+  </si>
+  <si>
+    <t>Ireri</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,19 +451,19 @@
     </row>
     <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
